--- a/va_facility_data_2025-02-20/Phoenix Midtown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Phoenix%20Midtown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Phoenix Midtown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Phoenix%20Midtown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R28a3ddab9f3c44f6be82b2d510953901"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rd9695cb7e5c7444fa53ad38168471523"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfdeb0bd07cbe439592cce9bb473b2997"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rb6d82095fd1140b3957446d3cf83d42a"/>
   </x:sheets>
 </x:workbook>
 </file>
